--- a/biology/Biologie cellulaire et moléculaire/Fonction_de_distribution_radiale/Fonction_de_distribution_radiale.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Fonction_de_distribution_radiale/Fonction_de_distribution_radiale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En mécanique statistique, la fonction de distribution radiale (ou fonction de corrélation de paires) notée 
         g
@@ -488,7 +500,7 @@
         r
         )
     {\displaystyle g(r)}
-, décrit, dans un système de particules (atomes, molécules, colloïdes, etc.), comment la densité varie en fonction de la distance par rapport à une particule de référence. Cette fonction est également utilisée pour décrire la « distribution et les distances entre des paires de particules dans un volume donné »[1],[2].
+, décrit, dans un système de particules (atomes, molécules, colloïdes, etc.), comment la densité varie en fonction de la distance par rapport à une particule de référence. Cette fonction est également utilisée pour décrire la « distribution et les distances entre des paires de particules dans un volume donné »,.
 </t>
         </is>
       </c>
@@ -517,7 +529,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Si une particule donnée est considérée comme étant à l'origine O, et si ρ est la densité moyenne en nombre des particules, alors la densité moyenne locale en fonction du temps à une distance 
         r
